--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -630,14 +630,14 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -769,14 +769,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A:D L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -913,7 +913,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,10 +1147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1491,6 +1491,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -1513,14 +1541,14 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
   </cols>
@@ -1811,12 +1839,12 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.46153846153846"/>
   </cols>
   <sheetData>
@@ -3039,7 +3067,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3586,7 +3614,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3826,7 +3854,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3928,7 +3956,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4085,7 +4113,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4242,13 +4270,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
   </cols>
@@ -4437,7 +4465,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,324 +32,330 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model4</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>m21</t>
-  </si>
-  <si>
-    <t>m22</t>
-  </si>
-  <si>
-    <t>m23</t>
-  </si>
-  <si>
-    <t>m24</t>
-  </si>
-  <si>
-    <t>m25</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>Isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>mets</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>Substrate Order</t>
-  </si>
-  <si>
-    <t>Product Order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>randomSequential</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>dxrInhibition</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>orderedIspG</t>
-  </si>
-  <si>
-    <t>ispH_branching</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomSequential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dxrInhibition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedIspG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ispH_branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -490,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,6 +519,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -628,17 +638,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,79 +681,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="n">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -753,7 +771,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -768,38 +786,38 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A:D L31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A5:B5 L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>44</v>
+      <c r="A2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -815,8 +833,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>49</v>
+      <c r="A3" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -832,8 +850,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>55</v>
+      <c r="A4" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
@@ -897,7 +915,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -912,32 +930,32 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -951,7 +969,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -965,7 +983,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -979,7 +997,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -993,7 +1011,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1007,7 +1025,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +1039,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1053,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1067,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1081,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1095,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1109,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1105,7 +1123,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1119,7 +1137,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1134,7 +1152,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1149,32 +1167,32 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>82</v>
+      <c r="D1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1188,7 +1206,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1202,7 +1220,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1216,7 +1234,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1230,7 +1248,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1244,7 +1262,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1258,7 +1276,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1272,7 +1290,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1286,7 +1304,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1300,7 +1318,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1314,7 +1332,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1328,7 +1346,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1342,7 +1360,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1356,7 +1374,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1370,7 +1388,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1384,7 +1402,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1398,7 +1416,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1412,7 +1430,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1426,7 +1444,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1440,7 +1458,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1454,7 +1472,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1468,7 +1486,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1482,7 +1500,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1496,7 +1514,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1510,7 +1528,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1525,7 +1543,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1540,63 +1558,63 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="A5:B5 B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>95</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1607,10 +1625,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1621,13 +1639,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1638,10 +1656,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1652,10 +1670,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1666,13 +1684,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1683,10 +1701,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1697,10 +1715,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1711,10 +1729,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1725,10 +1743,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1739,10 +1757,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1753,10 +1771,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1767,10 +1785,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1781,10 +1799,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1823,7 +1841,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1838,99 +1856,99 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>34</v>
       </c>
+      <c r="Q1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="S1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2010,7 +2028,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2090,7 +2108,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2170,7 +2188,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2250,7 +2268,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2330,7 +2348,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2410,7 +2428,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2490,7 +2508,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2570,7 +2588,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2650,7 +2668,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2730,7 +2748,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2810,7 +2828,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2890,7 +2908,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2970,7 +2988,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3051,7 +3069,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3066,41 +3084,41 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A5:B5 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>62</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3117,10 +3135,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3137,10 +3155,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3157,10 +3175,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3177,10 +3195,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3197,10 +3215,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3217,10 +3235,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3237,10 +3255,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3257,10 +3275,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3277,10 +3295,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3297,10 +3315,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3317,10 +3335,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3337,10 +3355,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3357,10 +3375,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3377,10 +3395,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3397,10 +3415,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3417,10 +3435,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3437,10 +3455,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3457,10 +3475,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3477,10 +3495,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3497,10 +3515,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3517,10 +3535,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3537,10 +3555,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3557,10 +3575,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3577,10 +3595,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3598,7 +3616,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3613,38 +3631,38 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A5:B5 C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3655,10 +3673,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3669,10 +3687,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3683,10 +3701,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3697,10 +3715,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3711,10 +3729,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3725,10 +3743,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3739,10 +3757,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3753,10 +3771,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3767,10 +3785,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3781,10 +3799,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3795,10 +3813,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3809,10 +3827,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3823,10 +3841,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3838,7 +3856,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3853,94 +3871,94 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3955,149 +3973,149 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>68</v>
+      <c r="A1" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4112,149 +4130,149 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4269,32 +4287,32 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>71</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -4305,7 +4323,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4316,7 +4334,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -4327,7 +4345,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -4338,7 +4356,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -4349,7 +4367,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -4360,7 +4378,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4371,7 +4389,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -4382,7 +4400,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -4393,7 +4411,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -4404,7 +4422,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -4415,7 +4433,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -4426,7 +4444,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4437,7 +4455,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -4449,7 +4467,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4464,29 +4482,29 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.46153846153846"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -4497,7 +4515,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -4508,7 +4526,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -4530,7 +4548,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -4541,7 +4559,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -4552,7 +4570,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4563,7 +4581,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4574,7 +4592,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4585,7 +4603,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4596,7 +4614,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4607,7 +4625,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4618,7 +4636,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4629,7 +4647,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4640,7 +4658,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4651,7 +4669,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4662,7 +4680,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4673,7 +4691,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4684,7 +4702,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4706,7 +4724,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4717,7 +4735,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4728,7 +4746,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4739,7 +4757,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4750,7 +4768,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>
@@ -4762,7 +4780,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -640,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A5:B5 L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -931,7 +931,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1559,13 +1559,13 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="A5:B5 B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.46"/>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3084,8 +3084,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A5:B5 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="A5:B5 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3872,7 +3872,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3974,7 +3974,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4131,7 +4131,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4288,7 +4288,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4483,7 +4483,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="102">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model4</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -220,12 +211,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">Isoenzymes</t>
@@ -496,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,18 +509,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -638,10 +608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,7 +627,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -665,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -673,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -729,42 +699,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -799,25 +752,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>80</v>
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -833,8 +786,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
+      <c r="A3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -850,8 +803,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>57</v>
+      <c r="A4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -868,7 +821,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
@@ -940,22 +893,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -969,7 +922,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -983,7 +936,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -997,7 +950,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1011,7 +964,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1025,7 +978,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1039,7 +992,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1053,7 +1006,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1067,7 +1020,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1081,7 +1034,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1095,7 +1048,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1109,7 +1062,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1123,7 +1076,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1137,7 +1090,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1177,22 +1130,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1206,7 +1159,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1220,7 +1173,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1234,7 +1187,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1248,7 +1201,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1262,7 +1215,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1276,7 +1229,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1290,7 +1243,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1304,7 +1257,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1318,7 +1271,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1332,7 +1285,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1346,7 +1299,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1360,7 +1313,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1374,7 +1327,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1388,7 +1341,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1402,7 +1355,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1416,7 +1369,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1430,7 +1383,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1444,7 +1397,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1458,7 +1411,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1472,7 +1425,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1486,7 +1439,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1500,7 +1453,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1514,7 +1467,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1528,7 +1481,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1565,56 +1518,56 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1625,10 +1578,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1639,13 +1592,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1656,10 +1609,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1670,10 +1623,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1684,13 +1637,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1701,10 +1654,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1715,10 +1668,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1729,10 +1682,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1743,10 +1696,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1757,10 +1710,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1771,10 +1724,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1785,10 +1738,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1799,10 +1752,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1867,88 +1820,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -2028,7 +1981,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2108,7 +2061,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2188,7 +2141,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2268,7 +2221,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2348,7 +2301,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2428,7 +2381,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2508,7 +2461,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2588,7 +2541,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2668,7 +2621,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2748,7 +2701,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2828,7 +2781,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2908,7 +2861,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2988,7 +2941,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3082,534 +3035,379 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3629,227 +3427,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>69</v>
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,77 +3636,77 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3983,133 +3737,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>70</v>
+      <c r="A1" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4141,132 +3895,132 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4300,19 +4054,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>73</v>
+      <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -4323,7 +4077,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4334,7 +4088,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -4345,7 +4099,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -4356,7 +4110,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -4367,7 +4121,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -4378,7 +4132,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4389,7 +4143,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -4400,7 +4154,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -4411,7 +4165,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -4422,7 +4176,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -4433,7 +4187,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -4444,7 +4198,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4455,7 +4209,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -4493,18 +4247,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -4515,7 +4269,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -4526,7 +4280,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -4537,7 +4291,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -4548,7 +4302,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -4559,7 +4313,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -4570,7 +4324,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4581,7 +4335,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4592,7 +4346,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4603,7 +4357,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4614,7 +4368,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4625,7 +4379,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4636,7 +4390,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4647,7 +4401,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4658,7 +4412,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4669,7 +4423,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4680,7 +4434,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4691,7 +4445,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4702,7 +4456,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4713,7 +4467,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4724,7 +4478,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4735,7 +4489,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4746,7 +4500,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4757,7 +4511,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4768,7 +4522,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -611,7 +611,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">fpr</t>
@@ -478,7 +475,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,10 +514,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -610,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -753,19 +746,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,16 +887,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,16 +1124,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,40 +1519,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1560,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1581,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1595,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>21</v>
@@ -1612,7 +1605,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1626,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1640,7 +1633,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -1657,7 +1650,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1671,7 +1664,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1685,7 +1678,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1699,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1713,7 +1706,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1727,7 +1720,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1741,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1755,7 +1748,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3035,16 +3028,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,9 +3050,6 @@
       <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3071,9 +3061,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -3085,9 +3072,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -3099,9 +3083,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -3113,9 +3094,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -3127,9 +3105,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3141,9 +3116,6 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -3155,9 +3127,6 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3169,9 +3138,6 @@
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3183,9 +3149,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3197,9 +3160,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3211,9 +3171,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -3225,9 +3182,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -3239,9 +3193,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -3253,9 +3204,6 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -3267,9 +3215,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -3281,9 +3226,6 @@
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3295,9 +3237,6 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3309,9 +3248,6 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3323,9 +3259,6 @@
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3337,9 +3270,6 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3351,9 +3281,6 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3365,9 +3292,6 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3379,9 +3303,6 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3393,9 +3314,6 @@
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3405,9 +3323,6 @@
         <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3441,16 +3356,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,8 +3652,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
+      <c r="A1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,7 +3810,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,13 +3970,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,13 +4162,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -730,150 +729,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1.00796885600469</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.166961099378256</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1.00796885600469</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.166961099378256</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>12.3421637076787</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.02956242208125</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>12.3421637076787</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.02956242208125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.915002642603547</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.0525060204632056</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.915002642603547</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0525060204632056</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0431054676763443</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.000345933397023627</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.0431054676763443</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.000345933397023627</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1106,7 +961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1497,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3030,7 +2885,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3538,9 +3393,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3550,78 +3405,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>56</v>
+      <c r="A1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3562,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="0" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3793,163 +3703,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.46"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4144,7 +3897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4455,4 +4208,148 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.46"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.00796885600469</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.166961099378256</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.00796885600469</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.166961099378256</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>12.3421637076787</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.02956242208125</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>12.3421637076787</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.02956242208125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.915002642603547</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.0525060204632056</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.915002642603547</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.0525060204632056</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0431054676763443</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.000345933397023627</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0431054676763443</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.000345933397023627</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -345,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -390,6 +399,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -474,7 +490,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,6 +519,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,7 +543,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,64 +675,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -732,7 +770,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,22 +779,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -770,7 +808,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -784,7 +822,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -798,7 +836,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -812,7 +850,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -826,7 +864,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -840,7 +878,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -854,7 +892,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -868,7 +906,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -882,7 +920,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -896,7 +934,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -910,7 +948,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -924,7 +962,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -938,7 +976,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -969,7 +1007,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,22 +1016,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>77</v>
+      <c r="C1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1007,7 +1045,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1021,7 +1059,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1073,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1087,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1063,7 +1101,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1115,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1129,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1105,7 +1143,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1119,7 +1157,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1133,7 +1171,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1147,7 +1185,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1161,7 +1199,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1175,7 +1213,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1189,7 +1227,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1203,7 +1241,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1217,7 +1255,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1231,7 +1269,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1245,7 +1283,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1259,7 +1297,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1273,7 +1311,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1287,7 +1325,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1301,7 +1339,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1315,7 +1353,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1329,7 +1367,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1360,7 +1398,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="1" sqref="A6:B7 B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1373,49 +1411,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>90</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1426,10 +1464,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1440,13 +1478,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1457,10 +1495,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1471,10 +1509,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1485,13 +1523,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1502,10 +1540,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1516,10 +1554,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1530,10 +1568,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1544,10 +1582,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1558,10 +1596,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1572,10 +1610,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1586,10 +1624,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1600,10 +1638,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1658,7 +1696,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1668,88 +1706,88 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="P1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="S1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -1829,7 +1867,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1909,7 +1947,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1989,7 +2027,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2069,7 +2107,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2149,7 +2187,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2229,7 +2267,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2309,7 +2347,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2389,7 +2427,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2469,7 +2507,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2549,7 +2587,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2629,7 +2667,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2709,7 +2747,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2789,7 +2827,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2886,7 +2924,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2896,22 +2934,22 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2919,10 +2957,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2930,10 +2968,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2941,10 +2979,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2952,10 +2990,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2963,10 +3001,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2974,10 +3012,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2985,10 +3023,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2996,10 +3034,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3007,10 +3045,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3018,10 +3056,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3029,10 +3067,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3040,10 +3078,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3051,10 +3089,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3062,10 +3100,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3073,10 +3111,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3084,10 +3122,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3095,10 +3133,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3106,10 +3144,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3117,10 +3155,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3128,10 +3166,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3139,10 +3177,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3150,10 +3188,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3161,10 +3199,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3172,10 +3210,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3200,7 +3238,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3210,25 +3248,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3236,10 +3274,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3247,10 +3285,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3258,10 +3296,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3269,10 +3307,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3280,10 +3318,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3291,10 +3329,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3302,10 +3340,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3313,10 +3351,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3324,10 +3362,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3335,10 +3373,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3346,10 +3384,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3357,10 +3395,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3368,10 +3406,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3395,8 +3433,8 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3405,133 +3443,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>63</v>
+      <c r="A1" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3591,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3563,132 +3601,132 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3748,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3722,19 +3760,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-36.1357777664226</v>
@@ -3745,7 +3783,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3756,7 +3794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-28.8293007969856</v>
@@ -3767,7 +3805,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.399102338928814</v>
@@ -3778,7 +3816,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-19.5558717961791</v>
@@ -3789,7 +3827,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-26.0966668488994</v>
@@ -3800,7 +3838,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -3811,7 +3849,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-100</v>
@@ -3822,7 +3860,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>14.6785</v>
@@ -3833,7 +3871,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-92.8312600256942</v>
@@ -3844,7 +3882,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.803837543986817</v>
@@ -3855,7 +3893,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-20.6245085645038</v>
@@ -3866,7 +3904,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -3877,7 +3915,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-100</v>
@@ -3905,7 +3943,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3915,18 +3953,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2.00506477447043E-006</v>
@@ -3937,7 +3975,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>55</v>
@@ -3948,7 +3986,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00011547048929337</v>
@@ -3959,7 +3997,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.001</v>
@@ -3970,7 +4008,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.3132036945575E-005</v>
@@ -3981,7 +4019,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8.7E-005</v>
@@ -3992,7 +4030,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-006</v>
@@ -4003,7 +4041,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -4014,7 +4052,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-006</v>
@@ -4025,7 +4063,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-006</v>
@@ -4036,7 +4074,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.181160404188E-007</v>
@@ -4047,7 +4085,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.000564</v>
@@ -4058,7 +4096,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.000187</v>
@@ -4069,7 +4107,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-008</v>
@@ -4080,7 +4118,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.00025</v>
@@ -4091,7 +4129,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-008</v>
@@ -4102,7 +4140,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.00691</v>
@@ -4113,7 +4151,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>9.81E-005</v>
@@ -4124,7 +4162,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000182743900470209</v>
@@ -4135,7 +4173,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.36182698457178E-006</v>
@@ -4146,7 +4184,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-006</v>
@@ -4157,7 +4195,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-006</v>
@@ -4168,7 +4206,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1E-006</v>
@@ -4179,7 +4217,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2.96E-005</v>
@@ -4190,7 +4228,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.2E-006</v>
@@ -4218,7 +4256,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="L31" activeCellId="1" sqref="A6:B7 L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4230,25 +4268,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
+      <c r="A2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.00796885600469</v>
@@ -4264,8 +4302,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
+      <c r="A3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12.3421637076787</v>
@@ -4281,8 +4319,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>54</v>
+      <c r="A4" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -4299,7 +4337,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.0431054676763443</v>
